--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_21-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_21-44.xlsx
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
   </si>
   <si>
     <t>MUCOSTA 100MG 20 TAB</t>
@@ -3357,17 +3360,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3383,17 +3386,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3401,7 +3404,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3409,17 +3412,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3441,7 +3444,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3461,13 +3464,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3487,13 +3490,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3513,17 +3516,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3545,11 +3548,11 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3565,17 +3568,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3591,17 +3594,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3617,17 +3620,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3643,17 +3646,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>153.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3675,11 +3678,11 @@
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>60</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3701,7 +3704,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
@@ -3721,13 +3724,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3747,17 +3750,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3773,17 +3776,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3799,17 +3802,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>225.59999999999999</v>
+        <v>58</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3817,7 +3820,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3825,17 +3828,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>45</v>
+        <v>225.59999999999999</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3857,11 +3860,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3877,17 +3880,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3903,13 +3906,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>73.319999999999993</v>
+        <v>65</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3929,13 +3932,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>46</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
@@ -3955,17 +3958,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3981,17 +3984,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4007,17 +4010,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4025,7 +4028,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4033,17 +4036,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4059,17 +4062,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4085,13 +4088,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4103,7 +4106,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4111,17 +4114,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4137,17 +4140,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4163,13 +4166,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4189,17 +4192,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4215,17 +4218,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>0.98999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4233,7 +4236,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4241,17 +4244,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4267,17 +4270,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4285,7 +4288,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4293,13 +4296,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4319,17 +4322,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4345,17 +4348,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4371,17 +4374,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4389,7 +4392,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4397,13 +4400,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4423,17 +4426,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4441,7 +4444,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4449,17 +4452,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4467,7 +4470,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4475,17 +4478,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4493,7 +4496,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4501,17 +4504,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4527,17 +4530,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4545,7 +4548,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4553,17 +4556,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4571,7 +4574,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4579,17 +4582,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4605,17 +4608,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4631,13 +4634,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
@@ -4657,51 +4660,77 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="140" ht="26.25" customHeight="1">
-      <c r="K140" s="11">
-        <v>8249.9400000000005</v>
-      </c>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="12">
+    <row r="140" ht="25.5" customHeight="1">
+      <c r="A140" s="6">
+        <v>137</v>
+      </c>
+      <c t="s" r="B140" s="7">
         <v>181</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c t="s" r="F141" s="13">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c t="s" r="H140" s="8">
+        <v>177</v>
+      </c>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="9">
+        <v>40</v>
+      </c>
+      <c r="M140" s="9"/>
+      <c r="N140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="K141" s="11">
+        <v>8324.9400000000005</v>
+      </c>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="12">
         <v>182</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="14"/>
-      <c t="s" r="I141" s="15">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c t="s" r="F142" s="13">
         <v>183</v>
       </c>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14"/>
+      <c t="s" r="I142" s="15">
+        <v>184</v>
+      </c>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="419">
+  <mergeCells count="422">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5117,10 +5146,13 @@
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
-    <mergeCell ref="K140:N140"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="K141:N141"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="I142:N142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
